--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_YORK_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/NEW_YORK_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1330"/>
+  <dimension ref="A1:D1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C7">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C26">
@@ -818,7 +818,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C34">
@@ -1013,7 +1013,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1052,7 +1052,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C52">
@@ -1130,7 +1130,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C58">
@@ -1143,7 +1143,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C59">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C84">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C90">
@@ -1769,7 +1769,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C110">
@@ -1987,7 +1987,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C122">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C127">
@@ -2091,7 +2091,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C130">
@@ -2169,19 +2169,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C136">
         <v>26</v>
       </c>
       <c r="D136">
-        <v>0.0009626420822688733</v>
+        <v>0.0009626420822688732</v>
       </c>
     </row>
     <row r="137">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C140">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C145">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C151">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C154">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C160">
@@ -2564,7 +2564,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C166">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C167">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C179">
@@ -2863,7 +2863,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C189">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C190">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C192">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C202">
@@ -3188,7 +3188,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C214">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C220">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C221">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C222">
@@ -3305,7 +3305,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C223">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C234">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C240">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C249">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C251">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C252">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C256">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C261">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C264">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C265">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C270">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C272">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C273">
@@ -3985,7 +3985,7 @@
         <v>26</v>
       </c>
       <c r="D274">
-        <v>0.0009626420822688733</v>
+        <v>0.0009626420822688732</v>
       </c>
     </row>
     <row r="275">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C277">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C278">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C279">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C284">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C285">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C289">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C290">
@@ -4258,13 +4258,13 @@
         <v>261</v>
       </c>
       <c r="D295">
-        <v>0.009663445518160613</v>
+        <v>0.009663445518160611</v>
       </c>
     </row>
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C296">
@@ -4277,7 +4277,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C297">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C299">
@@ -4316,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C300">
@@ -4368,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C304">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C316">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C318">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C320">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C322">
@@ -4654,7 +4654,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C326">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C327">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C339">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C344">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C350">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C356">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C360">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C363">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C368">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C370">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C373">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C374">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C376">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C380">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C381">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C384">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C387">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C394">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C395">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C399">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C406">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C409">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C414">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C417">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C423">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C426">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C429">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C430">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C434">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C435">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C437">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C498">
@@ -7196,7 +7196,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C520">
@@ -7287,7 +7287,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C527">
@@ -7339,7 +7339,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C531">
@@ -7417,7 +7417,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C537">
@@ -7443,7 +7443,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C539">
@@ -7528,7 +7528,7 @@
         <v>27</v>
       </c>
       <c r="D545">
-        <v>0.0009996667777407531</v>
+        <v>0.0009996667777407533</v>
       </c>
     </row>
     <row r="546">
@@ -7547,7 +7547,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C547">
@@ -7739,7 +7739,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C561">
@@ -7783,7 +7783,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C564">
@@ -7874,7 +7874,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C571">
@@ -7887,7 +7887,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C572">
@@ -7913,7 +7913,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C574">
@@ -7926,7 +7926,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C575">
@@ -7952,7 +7952,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C577">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C578">
@@ -7978,7 +7978,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C579">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C580">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C581">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C583">
@@ -8043,7 +8043,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C584">
@@ -8056,7 +8056,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C585">
@@ -8121,7 +8121,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C590">
@@ -8147,7 +8147,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C592">
@@ -8173,7 +8173,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C594">
@@ -8199,7 +8199,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C596">
@@ -8212,7 +8212,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C597">
@@ -8225,7 +8225,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C598">
@@ -8238,7 +8238,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C599">
@@ -8251,7 +8251,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C600">
@@ -8446,7 +8446,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C615">
@@ -8706,7 +8706,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C635">
@@ -8758,7 +8758,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C639">
@@ -9226,7 +9226,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C675">
@@ -9343,7 +9343,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C684">
@@ -9356,7 +9356,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C685">
@@ -9681,7 +9681,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C710">
@@ -9824,7 +9824,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C721">
@@ -9915,7 +9915,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C728">
@@ -9967,7 +9967,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C732">
@@ -9980,7 +9980,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C733">
@@ -10084,7 +10084,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C741">
@@ -10747,7 +10747,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C792">
@@ -10760,7 +10760,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C793">
@@ -10773,7 +10773,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C794">
@@ -10786,7 +10786,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C795">
@@ -10799,7 +10799,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C796">
@@ -10825,7 +10825,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C798">
@@ -10838,7 +10838,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C799">
@@ -10864,7 +10864,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C801">
@@ -10877,7 +10877,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C802">
@@ -10890,7 +10890,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C803">
@@ -10916,7 +10916,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C805">
@@ -10942,7 +10942,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C807">
@@ -10955,7 +10955,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C808">
@@ -10994,7 +10994,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C811">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C836">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C842">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C852">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C863">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C867">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C868">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C883">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C884">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C889">
@@ -12039,7 +12039,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C891">
@@ -12091,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C895">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C905">
@@ -12234,7 +12234,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C906">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C917">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C927">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C943">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C947">
@@ -12780,14 +12780,14 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C948">
         <v>26</v>
       </c>
       <c r="D948">
-        <v>0.0009626420822688733</v>
+        <v>0.0009626420822688732</v>
       </c>
     </row>
     <row r="949">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C955">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C963">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C964">
@@ -13066,7 +13066,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C970">
@@ -13092,7 +13092,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C972">
@@ -13105,7 +13105,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C973">
@@ -13170,14 +13170,14 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C978">
         <v>26</v>
       </c>
       <c r="D978">
-        <v>0.0009626420822688733</v>
+        <v>0.0009626420822688732</v>
       </c>
     </row>
     <row r="979">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C990">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C992">
@@ -13404,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C996">
@@ -13482,7 +13482,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1002">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1010">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1018">
@@ -13721,7 +13721,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1020">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1022">
@@ -13760,7 +13760,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1023">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1025">
@@ -13825,7 +13825,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1028">
@@ -13913,7 +13913,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1034">
@@ -13926,7 +13926,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1035">
@@ -13952,7 +13952,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1037">
@@ -14082,7 +14082,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1047">
@@ -14160,7 +14160,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1053">
@@ -14495,7 +14495,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1078">
@@ -14656,7 +14656,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1090">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1109">
@@ -14939,7 +14939,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1111">
@@ -15004,7 +15004,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1116">
@@ -15082,7 +15082,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1122">
@@ -15134,7 +15134,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1126">
@@ -15147,7 +15147,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1127">
@@ -15186,7 +15186,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1130">
@@ -15264,7 +15264,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1136">
@@ -15368,7 +15368,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1144">
@@ -15407,7 +15407,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1147">
@@ -15550,7 +15550,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1158">
@@ -15646,7 +15646,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1165">
@@ -15672,7 +15672,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1167">
@@ -15828,7 +15828,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1179">
@@ -16010,7 +16010,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1193">
@@ -16205,7 +16205,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1208">
@@ -16257,7 +16257,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1212">
@@ -16270,7 +16270,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1213">
@@ -16387,7 +16387,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1222">
@@ -16439,7 +16439,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1226">
@@ -16478,7 +16478,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1229">
@@ -16517,7 +16517,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1232">
@@ -16556,7 +16556,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1235">
@@ -16686,7 +16686,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1245">
@@ -16699,7 +16699,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1246">
@@ -16751,7 +16751,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1250">
@@ -16868,7 +16868,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1259">
@@ -16907,7 +16907,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1262">
@@ -17135,7 +17135,7 @@
         <v>27</v>
       </c>
       <c r="D1279">
-        <v>0.0009996667777407531</v>
+        <v>0.0009996667777407533</v>
       </c>
     </row>
     <row r="1280">
@@ -17258,7 +17258,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1289">
@@ -17401,7 +17401,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1300">
@@ -17414,7 +17414,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1301">
@@ -17567,7 +17567,7 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1312">
@@ -17606,7 +17606,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1315">
@@ -17619,7 +17619,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1316">
@@ -17684,7 +17684,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1321">
@@ -17731,41 +17731,6 @@
       </c>
       <c r="D1324">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
